--- a/insurance_data.xlsx
+++ b/insurance_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F330"/>
+  <dimension ref="A1:F257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +484,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>601.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -510,11 +510,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>593.14</v>
       </c>
     </row>
     <row r="4">
@@ -536,11 +536,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>29.97</v>
+        <v>370.9</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -588,11 +588,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2136.41</v>
+        <v>231.31</v>
       </c>
     </row>
     <row r="7">
@@ -614,11 +614,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2532.53</v>
+        <v>4322.52</v>
       </c>
     </row>
     <row r="8">
@@ -640,11 +640,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>152.6</v>
+        <v>2300.97</v>
       </c>
     </row>
     <row r="9">
@@ -666,7 +666,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -692,11 +692,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>150.82</v>
+        <v>101.14</v>
       </c>
     </row>
     <row r="11">
@@ -718,11 +718,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3524.59</v>
       </c>
     </row>
     <row r="12">
@@ -744,11 +744,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.32</v>
+        <v>2074.78</v>
       </c>
     </row>
     <row r="13">
@@ -770,7 +770,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -796,11 +796,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>226.66</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="15">
@@ -822,11 +822,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>267.16</v>
       </c>
     </row>
     <row r="16">
@@ -848,11 +848,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>23.09</v>
+        <v>124.85</v>
       </c>
     </row>
     <row r="17">
@@ -874,7 +874,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -900,11 +900,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>693.21</v>
+        <v>82.3</v>
       </c>
     </row>
     <row r="19">
@@ -926,11 +926,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1181.68</v>
       </c>
     </row>
     <row r="20">
@@ -952,11 +952,11 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.23</v>
+        <v>597.65</v>
       </c>
     </row>
     <row r="21">
@@ -978,7 +978,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1004,11 +1004,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>903.38</v>
+        <v>32.11</v>
       </c>
     </row>
     <row r="23">
@@ -1030,11 +1030,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>4081.37</v>
       </c>
     </row>
     <row r="24">
@@ -1056,11 +1056,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>7.05</v>
+        <v>2631.11</v>
       </c>
     </row>
     <row r="25">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1108,11 +1108,11 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1280.87</v>
+        <v>149.97</v>
       </c>
     </row>
     <row r="27">
@@ -1134,11 +1134,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>3746.46</v>
       </c>
     </row>
     <row r="28">
@@ -1160,11 +1160,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>26.91</v>
+        <v>1953.5</v>
       </c>
     </row>
     <row r="29">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3712.09</v>
+        <v>596.58</v>
       </c>
     </row>
     <row r="31">
@@ -1238,11 +1238,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>6855.02</v>
       </c>
     </row>
     <row r="32">
@@ -1264,11 +1264,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>188.45</v>
+        <v>3467.6</v>
       </c>
     </row>
     <row r="33">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1316,11 +1316,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>681.39</v>
+        <v>228.27</v>
       </c>
     </row>
     <row r="35">
@@ -1342,11 +1342,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>403.69</v>
+        <v>3466.57</v>
       </c>
     </row>
     <row r="36">
@@ -1368,11 +1368,11 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.04</v>
+        <v>1729.04</v>
       </c>
     </row>
     <row r="37">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1420,11 +1420,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>369.86</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="39">
@@ -1446,11 +1446,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>481.85</v>
       </c>
     </row>
     <row r="40">
@@ -1472,11 +1472,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>210.11</v>
       </c>
     </row>
     <row r="41">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -1628,11 +1628,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>188.86</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="47">
@@ -1654,11 +1654,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1174.41</v>
       </c>
     </row>
     <row r="48">
@@ -1680,11 +1680,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>16.97</v>
+        <v>472.16</v>
       </c>
     </row>
     <row r="49">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -1732,11 +1732,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>315.71</v>
+        <v>20.66</v>
       </c>
     </row>
     <row r="51">
@@ -1758,11 +1758,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1391.99</v>
       </c>
     </row>
     <row r="52">
@@ -1784,11 +1784,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>996.27</v>
       </c>
     </row>
     <row r="53">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -1836,11 +1836,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>3684.28</v>
+        <v>181.18</v>
       </c>
     </row>
     <row r="55">
@@ -1862,11 +1862,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>355.1</v>
+        <v>3738.51</v>
       </c>
     </row>
     <row r="56">
@@ -1888,11 +1888,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.8</v>
+        <v>2523.71</v>
       </c>
     </row>
     <row r="57">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -1940,11 +1940,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>7.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1966,11 +1966,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="60">
@@ -1992,11 +1992,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="61">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -2044,11 +2044,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>6.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2070,11 +2070,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>99.29000000000001</v>
       </c>
     </row>
     <row r="64">
@@ -2096,11 +2096,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>72.19</v>
       </c>
     </row>
     <row r="65">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -2148,11 +2148,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>989.84</v>
+        <v>114.64</v>
       </c>
     </row>
     <row r="67">
@@ -2174,11 +2174,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>162.45</v>
+        <v>3188.83</v>
       </c>
     </row>
     <row r="68">
@@ -2200,11 +2200,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>75.48999999999999</v>
+        <v>1888.56</v>
       </c>
     </row>
     <row r="69">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -2252,11 +2252,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>257.11</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="71">
@@ -2278,11 +2278,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1848.52</v>
       </c>
     </row>
     <row r="72">
@@ -2304,11 +2304,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.66</v>
+        <v>1091.7</v>
       </c>
     </row>
     <row r="73">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -2356,11 +2356,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1360.44</v>
+        <v>62.98</v>
       </c>
     </row>
     <row r="75">
@@ -2382,11 +2382,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>2245.46</v>
       </c>
     </row>
     <row r="76">
@@ -2408,11 +2408,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.87</v>
+        <v>1127.64</v>
       </c>
     </row>
     <row r="77">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -2460,11 +2460,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.01</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="79">
@@ -2486,11 +2486,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1964.46</v>
       </c>
     </row>
     <row r="80">
@@ -2512,11 +2512,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1526.5</v>
       </c>
     </row>
     <row r="81">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -2564,11 +2564,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1268.64</v>
+        <v>514.98</v>
       </c>
     </row>
     <row r="83">
@@ -2590,11 +2590,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>5435.46</v>
       </c>
     </row>
     <row r="84">
@@ -2616,11 +2616,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>267.67</v>
+        <v>2980.04</v>
       </c>
     </row>
     <row r="85">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -2668,11 +2668,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>10183.5</v>
+        <v>698.1799999999999</v>
       </c>
     </row>
     <row r="87">
@@ -2694,11 +2694,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2099.99</v>
+        <v>6959.37</v>
       </c>
     </row>
     <row r="88">
@@ -2720,11 +2720,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>6.02</v>
+        <v>4302.21</v>
       </c>
     </row>
     <row r="89">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -2772,11 +2772,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4183.41</v>
+        <v>346.12</v>
       </c>
     </row>
     <row r="91">
@@ -2798,11 +2798,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>687.27</v>
+        <v>2960.39</v>
       </c>
     </row>
     <row r="92">
@@ -2824,11 +2824,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3.48</v>
+        <v>2065.32</v>
       </c>
     </row>
     <row r="93">
@@ -2850,7 +2850,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -2876,11 +2876,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2676.92</v>
+        <v>273.28</v>
       </c>
     </row>
     <row r="95">
@@ -2902,11 +2902,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1548.43</v>
+        <v>4964.53</v>
       </c>
     </row>
     <row r="96">
@@ -2928,11 +2928,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3.53</v>
+        <v>3489.29</v>
       </c>
     </row>
     <row r="97">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -2980,11 +2980,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>302.47</v>
+        <v>43.06</v>
       </c>
     </row>
     <row r="99">
@@ -3006,11 +3006,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>1641.14</v>
       </c>
     </row>
     <row r="100">
@@ -3032,11 +3032,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.02</v>
+        <v>928.3099999999999</v>
       </c>
     </row>
     <row r="101">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -3084,11 +3084,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1187.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -3136,11 +3136,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>13.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -3188,11 +3188,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1496.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -3240,11 +3240,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>26.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -3292,11 +3292,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1922.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -3344,11 +3344,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>92.98999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -3396,11 +3396,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>609.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -3448,11 +3448,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -3500,11 +3500,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Health-Retail</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>703.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Health-Group</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -3552,11 +3552,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Health-Government schemes</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Overseas Medical</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -3594,17 +3594,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Acko General</t>
+          <t>AIC</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Acko General Insurance Ltd</t>
+          <t>Agriculture Insurance Co Of India Ltd</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -3620,21 +3620,21 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Acko General</t>
+          <t>AIC</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Acko General Insurance Ltd</t>
+          <t>Agriculture Insurance Co Of India Ltd</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>37.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -3646,21 +3646,21 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Acko General</t>
+          <t>AIC</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Acko General Insurance Ltd</t>
+          <t>Agriculture Insurance Co Of India Ltd</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>37.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3672,21 +3672,21 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Bajaj Allianz</t>
+          <t>AIC</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Bajaj Allianz General Insurance Co Ltd</t>
+          <t>Agriculture Insurance Co Of India Ltd</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>12.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -3698,21 +3698,21 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Bajaj Allianz</t>
+          <t>ECGC Ltd</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Bajaj Allianz General Insurance Co Ltd</t>
+          <t>ECGC Ltd</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>772.1799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -3724,21 +3724,21 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Bajaj Allianz</t>
+          <t>ECGC Ltd</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Bajaj Allianz General Insurance Co Ltd</t>
+          <t>ECGC Ltd</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>2634.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3750,17 +3750,17 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Cholamandalam MS</t>
+          <t>ECGC Ltd</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Cholamandalam MS General Insurance Co Ltd</t>
+          <t>ECGC Ltd</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -3776,21 +3776,21 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Cholamandalam MS</t>
+          <t>ECGC Ltd</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Cholamandalam MS General Insurance Co Ltd</t>
+          <t>ECGC Ltd</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>67.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -3802,21 +3802,21 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Cholamandalam MS</t>
+          <t>Acko General</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Cholamandalam MS General Insurance Co Ltd</t>
+          <t>Acko General Insurance Ltd</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>472.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -3828,21 +3828,21 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Zuno</t>
+          <t>Acko General</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Zuno General Insurance Co Ltd</t>
+          <t>Acko General Insurance Ltd</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>593.14</v>
       </c>
     </row>
     <row r="132">
@@ -3854,21 +3854,21 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Zuno</t>
+          <t>Acko General</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Zuno General Insurance Co Ltd</t>
+          <t>Acko General Insurance Ltd</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1.82</v>
+        <v>370.9</v>
       </c>
     </row>
     <row r="133">
@@ -3880,21 +3880,21 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Zuno</t>
+          <t>Acko General</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Zuno General Insurance Co Ltd</t>
+          <t>Acko General Insurance Ltd</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1.82</v>
+        <v>657.41</v>
       </c>
     </row>
     <row r="134">
@@ -3906,21 +3906,21 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Future Generali</t>
+          <t>Bajaj Allianz</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Future Generali India Insurance Co Ltd</t>
+          <t>Bajaj Allianz General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>231.31</v>
       </c>
     </row>
     <row r="135">
@@ -3932,21 +3932,21 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Future Generali</t>
+          <t>Bajaj Allianz</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Future Generali India Insurance Co Ltd</t>
+          <t>Bajaj Allianz General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>245.81</v>
+        <v>4322.52</v>
       </c>
     </row>
     <row r="136">
@@ -3958,21 +3958,21 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Future Generali</t>
+          <t>Bajaj Allianz</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Future Generali India Insurance Co Ltd</t>
+          <t>Bajaj Allianz General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>589.14</v>
+        <v>2300.97</v>
       </c>
     </row>
     <row r="137">
@@ -3984,21 +3984,21 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Go Digit</t>
+          <t>Bajaj Allianz</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Go Digit General Insurance Ltd</t>
+          <t>Bajaj Allianz General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>5508.61</v>
       </c>
     </row>
     <row r="138">
@@ -4010,21 +4010,21 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Go Digit</t>
+          <t>Cholamandalam MS</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Go Digit General Insurance Ltd</t>
+          <t>Cholamandalam MS General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>96.48999999999999</v>
+        <v>101.14</v>
       </c>
     </row>
     <row r="139">
@@ -4036,21 +4036,21 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Go Digit</t>
+          <t>Cholamandalam MS</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Go Digit General Insurance Ltd</t>
+          <t>Cholamandalam MS General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>96.48999999999999</v>
+        <v>3524.59</v>
       </c>
     </row>
     <row r="140">
@@ -4062,21 +4062,21 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HDFC ERGO</t>
+          <t>Cholamandalam MS</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HDFC Ergo General Insurance Co Ltd</t>
+          <t>Cholamandalam MS General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>72.39</v>
+        <v>2074.78</v>
       </c>
     </row>
     <row r="141">
@@ -4088,21 +4088,21 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>HDFC ERGO</t>
+          <t>Cholamandalam MS</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>HDFC Ergo General Insurance Co Ltd</t>
+          <t>Cholamandalam MS General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>202.87</v>
+        <v>564.98</v>
       </c>
     </row>
     <row r="142">
@@ -4114,21 +4114,21 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>HDFC ERGO</t>
+          <t>Zuno</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>HDFC Ergo General Insurance Co Ltd</t>
+          <t>Zuno General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2943.54</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="143">
@@ -4140,21 +4140,21 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>ICICI Lombard</t>
+          <t>Zuno</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>ICICI Lombard General Insurance Co Ltd</t>
+          <t>Zuno General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>49.4</v>
+        <v>267.16</v>
       </c>
     </row>
     <row r="144">
@@ -4166,21 +4166,21 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>ICICI Lombard</t>
+          <t>Zuno</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>ICICI Lombard General Insurance Co Ltd</t>
+          <t>Zuno General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>508.29</v>
+        <v>124.85</v>
       </c>
     </row>
     <row r="145">
@@ -4192,21 +4192,21 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>ICICI Lombard</t>
+          <t>Zuno</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>ICICI Lombard General Insurance Co Ltd</t>
+          <t>Zuno General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1724.48</v>
+        <v>256.5</v>
       </c>
     </row>
     <row r="146">
@@ -4218,21 +4218,21 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>IFFCO -Tokio</t>
+          <t>Future Generali</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>IFFCO-Tokio General Insurance Co Ltd</t>
+          <t>Future Generali India Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>34.86</v>
+        <v>82.3</v>
       </c>
     </row>
     <row r="147">
@@ -4244,21 +4244,21 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>IFFCO -Tokio</t>
+          <t>Future Generali</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>IFFCO-Tokio General Insurance Co Ltd</t>
+          <t>Future Generali India Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>380.33</v>
+        <v>1181.68</v>
       </c>
     </row>
     <row r="148">
@@ -4270,21 +4270,21 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>IFFCO -Tokio</t>
+          <t>Future Generali</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>IFFCO-Tokio General Insurance Co Ltd</t>
+          <t>Future Generali India Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1356.73</v>
+        <v>597.65</v>
       </c>
     </row>
     <row r="149">
@@ -4296,21 +4296,21 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Kotak Mahindra</t>
+          <t>Future Generali</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Kotak Mahindra General Insurance Co Ltd</t>
+          <t>Future Generali India Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>839.45</v>
       </c>
     </row>
     <row r="150">
@@ -4322,21 +4322,21 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Kotak Mahindra</t>
+          <t>Go Digit</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Kotak Mahindra General Insurance Co Ltd</t>
+          <t>Go Digit General Insurance Ltd</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>31.6</v>
+        <v>32.11</v>
       </c>
     </row>
     <row r="151">
@@ -4348,21 +4348,21 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Kotak Mahindra</t>
+          <t>Go Digit</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Kotak Mahindra General Insurance Co Ltd</t>
+          <t>Go Digit General Insurance Ltd</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>31.6</v>
+        <v>4081.37</v>
       </c>
     </row>
     <row r="152">
@@ -4374,21 +4374,21 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Kshema</t>
+          <t>Go Digit</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Kshema General insurance</t>
+          <t>Go Digit General Insurance Ltd</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>2631.11</v>
       </c>
     </row>
     <row r="153">
@@ -4400,21 +4400,21 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Kshema</t>
+          <t>Go Digit</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Kshema General insurance</t>
+          <t>Go Digit General Insurance Ltd</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>952.98</v>
       </c>
     </row>
     <row r="154">
@@ -4426,21 +4426,21 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Kshema</t>
+          <t>HDFC ERGO</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Kshema General insurance</t>
+          <t>HDFC Ergo General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>514.66</v>
+        <v>149.97</v>
       </c>
     </row>
     <row r="155">
@@ -4452,21 +4452,21 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Liberty General</t>
+          <t>HDFC ERGO</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Liberty  General Insurance Co. Ltd</t>
+          <t>HDFC Ergo General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>3746.46</v>
       </c>
     </row>
     <row r="156">
@@ -4478,21 +4478,21 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Liberty General</t>
+          <t>HDFC ERGO</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Liberty  General Insurance Co. Ltd</t>
+          <t>HDFC Ergo General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>52.08</v>
+        <v>1953.5</v>
       </c>
     </row>
     <row r="157">
@@ -4504,21 +4504,21 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Liberty General</t>
+          <t>HDFC ERGO</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Liberty  General Insurance Co. Ltd</t>
+          <t>HDFC Ergo General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>52.08</v>
+        <v>3921.32</v>
       </c>
     </row>
     <row r="158">
@@ -4530,21 +4530,21 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Magma HDI</t>
+          <t>ICICI Lombard</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Magma HDI General Insurance Co Ltd</t>
+          <t>ICICI Lombard General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>596.58</v>
       </c>
     </row>
     <row r="159">
@@ -4556,21 +4556,21 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Magma HDI</t>
+          <t>ICICI Lombard</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Magma HDI General Insurance Co Ltd</t>
+          <t>ICICI Lombard General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0.92</v>
+        <v>6855.02</v>
       </c>
     </row>
     <row r="160">
@@ -4582,21 +4582,21 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Magma HDI</t>
+          <t>ICICI Lombard</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Magma HDI General Insurance Co Ltd</t>
+          <t>ICICI Lombard General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0.92</v>
+        <v>3467.6</v>
       </c>
     </row>
     <row r="161">
@@ -4608,21 +4608,21 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>National</t>
+          <t>ICICI Lombard</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>National Insurance Co Ltd</t>
+          <t>ICICI Lombard General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>4748.07</v>
       </c>
     </row>
     <row r="162">
@@ -4634,21 +4634,21 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>National</t>
+          <t>IFFCO -Tokio</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>National Insurance Co Ltd</t>
+          <t>IFFCO-Tokio General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>365.42</v>
+        <v>228.27</v>
       </c>
     </row>
     <row r="163">
@@ -4660,21 +4660,21 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>National</t>
+          <t>IFFCO -Tokio</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>National Insurance Co Ltd</t>
+          <t>IFFCO-Tokio General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>371.88</v>
+        <v>3466.57</v>
       </c>
     </row>
     <row r="164">
@@ -4686,21 +4686,21 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Navi</t>
+          <t>IFFCO -Tokio</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Navi General Insurance Co. Ltd</t>
+          <t>IFFCO-Tokio General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>1729.04</v>
       </c>
     </row>
     <row r="165">
@@ -4712,21 +4712,21 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Navi</t>
+          <t>IFFCO -Tokio</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Navi General Insurance Co. Ltd</t>
+          <t>IFFCO-Tokio General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>1255.33</v>
       </c>
     </row>
     <row r="166">
@@ -4738,21 +4738,21 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Navi</t>
+          <t>Kotak Mahindra</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Navi General Insurance Co. Ltd</t>
+          <t>Kotak Mahindra General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="167">
@@ -4764,21 +4764,21 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Raheja QBE</t>
+          <t>Kotak Mahindra</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Raheja QBE General Insurance Co Ltd</t>
+          <t>Kotak Mahindra General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>481.85</v>
       </c>
     </row>
     <row r="168">
@@ -4790,21 +4790,21 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Raheja QBE</t>
+          <t>Kotak Mahindra</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Raheja QBE General Insurance Co Ltd</t>
+          <t>Kotak Mahindra General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0.15</v>
+        <v>210.11</v>
       </c>
     </row>
     <row r="169">
@@ -4816,21 +4816,21 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Raheja QBE</t>
+          <t>Kotak Mahindra</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Raheja QBE General Insurance Co Ltd</t>
+          <t>Kotak Mahindra General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0.15</v>
+        <v>440.46</v>
       </c>
     </row>
     <row r="170">
@@ -4842,17 +4842,17 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Reliance General</t>
+          <t>Kshema</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Reliance General Insurance Co Ltd</t>
+          <t>Kshema General insurance</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -4868,21 +4868,21 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Reliance General</t>
+          <t>Kshema</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Reliance General Insurance Co Ltd</t>
+          <t>Kshema General insurance</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>65.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -4894,21 +4894,21 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Reliance General</t>
+          <t>Kshema</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Reliance General Insurance Co Ltd</t>
+          <t>Kshema General insurance</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>2907.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -4920,17 +4920,17 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Royal Sundaram</t>
+          <t>Kshema</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Royal Sundaram General Insurance Co Ltd</t>
+          <t>Kshema General insurance</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -4946,21 +4946,21 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Royal Sundaram</t>
+          <t>Liberty General</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Royal Sundaram General Insurance Co Ltd</t>
+          <t>Liberty  General Insurance Co. Ltd</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>6.53</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="175">
@@ -4972,21 +4972,21 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Royal Sundaram</t>
+          <t>Liberty General</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Royal Sundaram General Insurance Co Ltd</t>
+          <t>Liberty  General Insurance Co. Ltd</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>6.53</v>
+        <v>1174.41</v>
       </c>
     </row>
     <row r="176">
@@ -4998,21 +4998,21 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SBI General</t>
+          <t>Liberty General</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>SBI General Insurance Co Ltd</t>
+          <t>Liberty  General Insurance Co. Ltd</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>31.94</v>
+        <v>472.16</v>
       </c>
     </row>
     <row r="177">
@@ -5024,21 +5024,21 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SBI General</t>
+          <t>Liberty General</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>SBI General Insurance Co Ltd</t>
+          <t>Liberty  General Insurance Co. Ltd</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>111.66</v>
+        <v>256.53</v>
       </c>
     </row>
     <row r="178">
@@ -5050,21 +5050,21 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SBI General</t>
+          <t>Magma HDI</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>SBI General Insurance Co Ltd</t>
+          <t>Magma HDI General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>2080.56</v>
+        <v>20.66</v>
       </c>
     </row>
     <row r="179">
@@ -5076,21 +5076,21 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Shriram General</t>
+          <t>Magma HDI</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Shriram General Insurance Co Ltd</t>
+          <t>Magma HDI General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>1391.99</v>
       </c>
     </row>
     <row r="180">
@@ -5102,21 +5102,21 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Shriram General</t>
+          <t>Magma HDI</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Shriram General Insurance Co Ltd</t>
+          <t>Magma HDI General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>12.02</v>
+        <v>996.27</v>
       </c>
     </row>
     <row r="181">
@@ -5128,21 +5128,21 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Shriram General</t>
+          <t>Magma HDI</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Shriram General Insurance Co Ltd</t>
+          <t>Magma HDI General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>12.02</v>
+        <v>350.7</v>
       </c>
     </row>
     <row r="182">
@@ -5154,21 +5154,21 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Tata-AIG</t>
+          <t>National</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
+          <t>National Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>69.64</v>
+        <v>181.18</v>
       </c>
     </row>
     <row r="183">
@@ -5180,21 +5180,21 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Tata-AIG</t>
+          <t>National</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
+          <t>National Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>260.12</v>
+        <v>3738.51</v>
       </c>
     </row>
     <row r="184">
@@ -5206,21 +5206,21 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Tata-AIG</t>
+          <t>National</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
+          <t>National Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>546.98</v>
+        <v>2523.71</v>
       </c>
     </row>
     <row r="185">
@@ -5232,21 +5232,21 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>New India</t>
+          <t>National</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>The New India Assurance Co Ltd</t>
+          <t>National Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>100.3</v>
+        <v>5670.12</v>
       </c>
     </row>
     <row r="186">
@@ -5258,21 +5258,21 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>New India</t>
+          <t>Navi</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>The New India Assurance Co Ltd</t>
+          <t>Navi General Insurance Co. Ltd</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>865.6900000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -5284,21 +5284,21 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>New India</t>
+          <t>Navi</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>The New India Assurance Co Ltd</t>
+          <t>Navi General Insurance Co. Ltd</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>969.38</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="188">
@@ -5310,21 +5310,21 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Oriental</t>
+          <t>Navi</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>The Oriental Insurance Co Ltd</t>
+          <t>Navi General Insurance Co. Ltd</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="189">
@@ -5336,21 +5336,21 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Oriental</t>
+          <t>Navi</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>The Oriental Insurance Co Ltd</t>
+          <t>Navi General Insurance Co. Ltd</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>373.18</v>
+        <v>42.82</v>
       </c>
     </row>
     <row r="190">
@@ -5362,21 +5362,21 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Oriental</t>
+          <t>Raheja QBE</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>The Oriental Insurance Co Ltd</t>
+          <t>Raheja QBE General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1491.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -5388,21 +5388,21 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>United India</t>
+          <t>Raheja QBE</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>United India Insurance Co Ltd</t>
+          <t>Raheja QBE General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>99.29000000000001</v>
       </c>
     </row>
     <row r="192">
@@ -5414,21 +5414,21 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>United India</t>
+          <t>Raheja QBE</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>United India Insurance Co Ltd</t>
+          <t>Raheja QBE General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>356.24</v>
+        <v>72.19</v>
       </c>
     </row>
     <row r="193">
@@ -5440,21 +5440,21 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>United India</t>
+          <t>Raheja QBE</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>United India Insurance Co Ltd</t>
+          <t>Raheja QBE General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>1043.44</v>
+        <v>9.23</v>
       </c>
     </row>
     <row r="194">
@@ -5466,21 +5466,21 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Universal Sompo</t>
+          <t>Reliance General</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Universal Sompo General Insurance Co Ltd</t>
+          <t>Reliance General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>8.68</v>
+        <v>114.64</v>
       </c>
     </row>
     <row r="195">
@@ -5492,21 +5492,21 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Universal Sompo</t>
+          <t>Reliance General</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Universal Sompo General Insurance Co Ltd</t>
+          <t>Reliance General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>38.28</v>
+        <v>3188.83</v>
       </c>
     </row>
     <row r="196">
@@ -5518,21 +5518,21 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Universal Sompo</t>
+          <t>Reliance General</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Universal Sompo General Insurance Co Ltd</t>
+          <t>Reliance General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>1326.44</v>
+        <v>1888.56</v>
       </c>
     </row>
     <row r="197">
@@ -5544,21 +5544,21 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>AIC</t>
+          <t>Reliance General</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Agriculture Insurance Co Of India Ltd</t>
+          <t>Reliance General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>0</v>
+        <v>1521.9</v>
       </c>
     </row>
     <row r="198">
@@ -5570,21 +5570,21 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>AIC</t>
+          <t>Royal Sundaram</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Agriculture Insurance Co Of India Ltd</t>
+          <t>Royal Sundaram General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>21.58</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="199">
@@ -5596,21 +5596,21 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>AIC</t>
+          <t>Royal Sundaram</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Agriculture Insurance Co Of India Ltd</t>
+          <t>Royal Sundaram General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>7336.05</v>
+        <v>1848.52</v>
       </c>
     </row>
     <row r="200">
@@ -5622,21 +5622,21 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>ECGC Ltd</t>
+          <t>Royal Sundaram</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>ECGC Ltd</t>
+          <t>Royal Sundaram General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Crop Insurance</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>881.48</v>
+        <v>1091.7</v>
       </c>
     </row>
     <row r="201">
@@ -5648,21 +5648,21 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>ECGC Ltd</t>
+          <t>Royal Sundaram</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>ECGC Ltd</t>
+          <t>Royal Sundaram General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Credit Guarantee</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0</v>
+        <v>407.76</v>
       </c>
     </row>
     <row r="202">
@@ -5674,21 +5674,21 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>ECGC Ltd</t>
+          <t>SBI General</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>ECGC Ltd</t>
+          <t>SBI General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>All Other miscellaneous</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>881.48</v>
+        <v>62.98</v>
       </c>
     </row>
     <row r="203">
@@ -5700,21 +5700,21 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Acko General</t>
+          <t>SBI General</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Acko General Insurance Ltd</t>
+          <t>SBI General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
+        <v>2245.46</v>
       </c>
     </row>
     <row r="204">
@@ -5726,21 +5726,21 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Acko General</t>
+          <t>SBI General</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Acko General Insurance Ltd</t>
+          <t>SBI General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>593.14</v>
+        <v>1127.64</v>
       </c>
     </row>
     <row r="205">
@@ -5752,21 +5752,21 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Acko General</t>
+          <t>SBI General</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Acko General Insurance Ltd</t>
+          <t>SBI General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Motor OD</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>370.9</v>
+        <v>1780.94</v>
       </c>
     </row>
     <row r="206">
@@ -5778,21 +5778,21 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Acko General</t>
+          <t>Shriram General</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Acko General Insurance Ltd</t>
+          <t>Shriram General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Motor TP</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>657.41</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="207">
@@ -5804,21 +5804,21 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Bajaj Allianz</t>
+          <t>Shriram General</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Bajaj Allianz General Insurance Co Ltd</t>
+          <t>Shriram General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>231.31</v>
+        <v>1964.46</v>
       </c>
     </row>
     <row r="208">
@@ -5830,21 +5830,21 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Bajaj Allianz</t>
+          <t>Shriram General</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Bajaj Allianz General Insurance Co Ltd</t>
+          <t>Shriram General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>4322.52</v>
+        <v>1526.5</v>
       </c>
     </row>
     <row r="209">
@@ -5856,21 +5856,21 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Bajaj Allianz</t>
+          <t>Shriram General</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Bajaj Allianz General Insurance Co Ltd</t>
+          <t>Shriram General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Motor OD</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>2300.97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -5882,21 +5882,21 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Bajaj Allianz</t>
+          <t>Tata-AIG</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Bajaj Allianz General Insurance Co Ltd</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Motor TP</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>5508.61</v>
+        <v>514.98</v>
       </c>
     </row>
     <row r="211">
@@ -5908,21 +5908,21 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Cholamandalam MS</t>
+          <t>Tata-AIG</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Cholamandalam MS General Insurance Co Ltd</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>101.14</v>
+        <v>5435.46</v>
       </c>
     </row>
     <row r="212">
@@ -5934,21 +5934,21 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Cholamandalam MS</t>
+          <t>Tata-AIG</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Cholamandalam MS General Insurance Co Ltd</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>3524.59</v>
+        <v>2980.04</v>
       </c>
     </row>
     <row r="213">
@@ -5960,21 +5960,21 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Cholamandalam MS</t>
+          <t>Tata-AIG</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Cholamandalam MS General Insurance Co Ltd</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Motor OD</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>2074.78</v>
+        <v>2117.26</v>
       </c>
     </row>
     <row r="214">
@@ -5986,21 +5986,21 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Cholamandalam MS</t>
+          <t>New India</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Cholamandalam MS General Insurance Co Ltd</t>
+          <t>The New India Assurance Co Ltd</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Motor TP</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>564.98</v>
+        <v>698.1799999999999</v>
       </c>
     </row>
     <row r="215">
@@ -6012,21 +6012,21 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Zuno</t>
+          <t>New India</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Zuno General Insurance Co Ltd</t>
+          <t>The New India Assurance Co Ltd</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0.55</v>
+        <v>6959.37</v>
       </c>
     </row>
     <row r="216">
@@ -6038,21 +6038,21 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Zuno</t>
+          <t>New India</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Zuno General Insurance Co Ltd</t>
+          <t>The New India Assurance Co Ltd</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>267.16</v>
+        <v>4302.21</v>
       </c>
     </row>
     <row r="217">
@@ -6064,21 +6064,21 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Zuno</t>
+          <t>New India</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Zuno General Insurance Co Ltd</t>
+          <t>The New India Assurance Co Ltd</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Motor OD</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>124.85</v>
+        <v>14435.79</v>
       </c>
     </row>
     <row r="218">
@@ -6090,21 +6090,21 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Zuno</t>
+          <t>Oriental</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Zuno General Insurance Co Ltd</t>
+          <t>The Oriental Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Motor TP</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>256.5</v>
+        <v>346.12</v>
       </c>
     </row>
     <row r="219">
@@ -6116,21 +6116,21 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Future Generali</t>
+          <t>Oriental</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Future Generali India Insurance Co Ltd</t>
+          <t>The Oriental Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>82.3</v>
+        <v>2960.39</v>
       </c>
     </row>
     <row r="220">
@@ -6142,21 +6142,21 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Future Generali</t>
+          <t>Oriental</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Future Generali India Insurance Co Ltd</t>
+          <t>The Oriental Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1181.68</v>
+        <v>2065.32</v>
       </c>
     </row>
     <row r="221">
@@ -6168,21 +6168,21 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Future Generali</t>
+          <t>Oriental</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Future Generali India Insurance Co Ltd</t>
+          <t>The Oriental Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Motor OD</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>597.65</v>
+        <v>6168.85</v>
       </c>
     </row>
     <row r="222">
@@ -6194,21 +6194,21 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Future Generali</t>
+          <t>United India</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Future Generali India Insurance Co Ltd</t>
+          <t>United India Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Motor TP</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>839.45</v>
+        <v>273.28</v>
       </c>
     </row>
     <row r="223">
@@ -6220,21 +6220,21 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Go Digit</t>
+          <t>United India</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Go Digit General Insurance Ltd</t>
+          <t>United India Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>32.11</v>
+        <v>4964.53</v>
       </c>
     </row>
     <row r="224">
@@ -6246,21 +6246,21 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Go Digit</t>
+          <t>United India</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Go Digit General Insurance Ltd</t>
+          <t>United India Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>4081.37</v>
+        <v>3489.29</v>
       </c>
     </row>
     <row r="225">
@@ -6272,21 +6272,21 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Go Digit</t>
+          <t>United India</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Go Digit General Insurance Ltd</t>
+          <t>United India Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Motor OD</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>2631.11</v>
+        <v>5311.99</v>
       </c>
     </row>
     <row r="226">
@@ -6298,21 +6298,21 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Go Digit</t>
+          <t>Universal Sompo</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Go Digit General Insurance Ltd</t>
+          <t>Universal Sompo General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Motor TP</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>952.98</v>
+        <v>43.06</v>
       </c>
     </row>
     <row r="227">
@@ -6324,21 +6324,21 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>HDFC ERGO</t>
+          <t>Universal Sompo</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>HDFC Ergo General Insurance Co Ltd</t>
+          <t>Universal Sompo General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>149.97</v>
+        <v>1641.14</v>
       </c>
     </row>
     <row r="228">
@@ -6350,21 +6350,21 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>HDFC ERGO</t>
+          <t>Universal Sompo</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>HDFC Ergo General Insurance Co Ltd</t>
+          <t>Universal Sompo General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>3746.46</v>
+        <v>928.3099999999999</v>
       </c>
     </row>
     <row r="229">
@@ -6376,21 +6376,21 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>HDFC ERGO</t>
+          <t>Universal Sompo</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>HDFC Ergo General Insurance Co Ltd</t>
+          <t>Universal Sompo General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Motor OD</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>1953.5</v>
+        <v>374.36</v>
       </c>
     </row>
     <row r="230">
@@ -6402,21 +6402,21 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>HDFC ERGO</t>
+          <t>Niva Bupa</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>HDFC Ergo General Insurance Co Ltd</t>
+          <t xml:space="preserve"> Niva bupa health insurance company limited</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Motor TP</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>3921.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -6428,21 +6428,21 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>ICICI Lombard</t>
+          <t>Niva Bupa</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>ICICI Lombard General Insurance Co Ltd</t>
+          <t xml:space="preserve"> Niva bupa health insurance company limited</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>596.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -6454,21 +6454,21 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>ICICI Lombard</t>
+          <t>Niva Bupa</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>ICICI Lombard General Insurance Co Ltd</t>
+          <t xml:space="preserve"> Niva bupa health insurance company limited</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>6855.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -6480,21 +6480,21 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>ICICI Lombard</t>
+          <t>Niva Bupa</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>ICICI Lombard General Insurance Co Ltd</t>
+          <t xml:space="preserve"> Niva bupa health insurance company limited</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Motor OD</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>3467.6</v>
+        <v>3785.6</v>
       </c>
     </row>
     <row r="234">
@@ -6506,21 +6506,21 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>ICICI Lombard</t>
+          <t>Aditya Birla</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>ICICI Lombard General Insurance Co Ltd</t>
+          <t>Aditya Birla Health Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Motor TP</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4748.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -6532,21 +6532,21 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>IFFCO -Tokio</t>
+          <t>Aditya Birla</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>IFFCO-Tokio General Insurance Co Ltd</t>
+          <t>Aditya Birla Health Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>228.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -6558,21 +6558,21 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>IFFCO -Tokio</t>
+          <t>Aditya Birla</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>IFFCO-Tokio General Insurance Co Ltd</t>
+          <t>Aditya Birla Health Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>3466.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -6584,21 +6584,21 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>IFFCO -Tokio</t>
+          <t>Aditya Birla</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>IFFCO-Tokio General Insurance Co Ltd</t>
+          <t>Aditya Birla Health Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Motor OD</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>1729.04</v>
+        <v>2255.11</v>
       </c>
     </row>
     <row r="238">
@@ -6610,21 +6610,21 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>IFFCO -Tokio</t>
+          <t>Care Insurance</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>IFFCO-Tokio General Insurance Co Ltd</t>
+          <t>Care Health Insurance Ltd</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Motor TP</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1255.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -6636,21 +6636,21 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Kotak Mahindra</t>
+          <t>Care Insurance</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Kotak Mahindra General Insurance Co Ltd</t>
+          <t>Care Health Insurance Ltd</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>6.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -6662,21 +6662,21 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Kotak Mahindra</t>
+          <t>Care Insurance</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Kotak Mahindra General Insurance Co Ltd</t>
+          <t>Care Health Insurance Ltd</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>481.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -6688,21 +6688,21 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Kotak Mahindra</t>
+          <t>Care Insurance</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Kotak Mahindra General Insurance Co Ltd</t>
+          <t>Care Health Insurance Ltd</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Motor OD</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>210.11</v>
+        <v>4663.98</v>
       </c>
     </row>
     <row r="242">
@@ -6714,21 +6714,21 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Kotak Mahindra</t>
+          <t>ManipalCigna</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Kotak Mahindra General Insurance Co Ltd</t>
+          <t>ManipalCigna Health Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Motor TP</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>440.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -6740,17 +6740,17 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Kshema</t>
+          <t>ManipalCigna</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Kshema General insurance</t>
+          <t>ManipalCigna Health Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -6766,17 +6766,17 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Kshema</t>
+          <t>ManipalCigna</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Kshema General insurance</t>
+          <t>ManipalCigna Health Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F244" t="n">
@@ -6792,21 +6792,21 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Kshema</t>
+          <t>ManipalCigna</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Kshema General insurance</t>
+          <t>ManipalCigna Health Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Motor OD</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>1117.05</v>
       </c>
     </row>
     <row r="246">
@@ -6818,17 +6818,17 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Kshema</t>
+          <t>Star Health</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Kshema General insurance</t>
+          <t>Star Health &amp; Allied Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Motor TP</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F246" t="n">
@@ -6844,21 +6844,21 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Liberty General</t>
+          <t>Star Health</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Liberty  General Insurance Co. Ltd</t>
+          <t>Star Health &amp; Allied Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>29.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -6870,21 +6870,21 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Liberty General</t>
+          <t>Star Health</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Liberty  General Insurance Co. Ltd</t>
+          <t>Star Health &amp; Allied Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>1174.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -6896,21 +6896,21 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Liberty General</t>
+          <t>Star Health</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Liberty  General Insurance Co. Ltd</t>
+          <t>Star Health &amp; Allied Insurance Co Ltd</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Motor OD</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>472.16</v>
+        <v>10142.29</v>
       </c>
     </row>
     <row r="250">
@@ -6922,21 +6922,21 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Liberty General</t>
+          <t>AIC</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Liberty  General Insurance Co. Ltd</t>
+          <t>Agriculture Insurance Co Of India Ltd</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Motor TP</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>256.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -6948,21 +6948,21 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Magma HDI</t>
+          <t>AIC</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Magma HDI General Insurance Co Ltd</t>
+          <t>Agriculture Insurance Co Of India Ltd</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>20.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -6974,21 +6974,21 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Magma HDI</t>
+          <t>AIC</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Magma HDI General Insurance Co Ltd</t>
+          <t>Agriculture Insurance Co Of India Ltd</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>1391.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -7000,21 +7000,21 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Magma HDI</t>
+          <t>AIC</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Magma HDI General Insurance Co Ltd</t>
+          <t>Agriculture Insurance Co Of India Ltd</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Motor OD</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F253" t="n">
-        <v>996.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -7026,21 +7026,21 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Magma HDI</t>
+          <t>ECGC Ltd</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Magma HDI General Insurance Co Ltd</t>
+          <t>ECGC Ltd</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Motor TP</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>350.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -7052,21 +7052,21 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>National</t>
+          <t>ECGC Ltd</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>National Insurance Co Ltd</t>
+          <t>ECGC Ltd</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>181.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -7078,21 +7078,21 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>National</t>
+          <t>ECGC Ltd</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>National Insurance Co Ltd</t>
+          <t>ECGC Ltd</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Motor OD</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>3738.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -7104,1918 +7104,20 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>National</t>
+          <t>ECGC Ltd</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>National Insurance Co Ltd</t>
+          <t>ECGC Ltd</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Motor OD</t>
+          <t>Motor TP</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>2523.71</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B258" t="n">
-        <v>12</v>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>National</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>National Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>Motor TP</t>
-        </is>
-      </c>
-      <c r="F258" t="n">
-        <v>5670.12</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B259" t="n">
-        <v>12</v>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>Navi</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>Navi General Insurance Co. Ltd</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
-      <c r="F259" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B260" t="n">
-        <v>12</v>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>Navi</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>Navi General Insurance Co. Ltd</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="F260" t="n">
-        <v>6.19</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B261" t="n">
-        <v>12</v>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>Navi</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>Navi General Insurance Co. Ltd</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>Motor OD</t>
-        </is>
-      </c>
-      <c r="F261" t="n">
-        <v>5.76</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B262" t="n">
-        <v>12</v>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>Navi</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>Navi General Insurance Co. Ltd</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>Motor TP</t>
-        </is>
-      </c>
-      <c r="F262" t="n">
-        <v>42.82</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B263" t="n">
-        <v>12</v>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>Raheja QBE</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>Raheja QBE General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
-      <c r="F263" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B264" t="n">
-        <v>12</v>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>Raheja QBE</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>Raheja QBE General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="F264" t="n">
-        <v>99.29000000000001</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B265" t="n">
-        <v>12</v>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Raheja QBE</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>Raheja QBE General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>Motor OD</t>
-        </is>
-      </c>
-      <c r="F265" t="n">
-        <v>72.19</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B266" t="n">
-        <v>12</v>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>Raheja QBE</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>Raheja QBE General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>Motor TP</t>
-        </is>
-      </c>
-      <c r="F266" t="n">
-        <v>9.23</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B267" t="n">
-        <v>12</v>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>Reliance General</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>Reliance General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
-      <c r="F267" t="n">
-        <v>114.64</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B268" t="n">
-        <v>12</v>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>Reliance General</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>Reliance General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="F268" t="n">
-        <v>3188.83</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B269" t="n">
-        <v>12</v>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>Reliance General</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>Reliance General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>Motor OD</t>
-        </is>
-      </c>
-      <c r="F269" t="n">
-        <v>1888.56</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B270" t="n">
-        <v>12</v>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Reliance General</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>Reliance General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>Motor TP</t>
-        </is>
-      </c>
-      <c r="F270" t="n">
-        <v>1521.9</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B271" t="n">
-        <v>12</v>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>Royal Sundaram</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>Royal Sundaram General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
-      <c r="F271" t="n">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B272" t="n">
-        <v>12</v>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Royal Sundaram</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>Royal Sundaram General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="F272" t="n">
-        <v>1848.52</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B273" t="n">
-        <v>12</v>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>Royal Sundaram</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>Royal Sundaram General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>Motor OD</t>
-        </is>
-      </c>
-      <c r="F273" t="n">
-        <v>1091.7</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B274" t="n">
-        <v>12</v>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>Royal Sundaram</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>Royal Sundaram General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>Motor TP</t>
-        </is>
-      </c>
-      <c r="F274" t="n">
-        <v>407.76</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B275" t="n">
-        <v>12</v>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>SBI General</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>SBI General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
-      <c r="F275" t="n">
-        <v>62.98</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B276" t="n">
-        <v>12</v>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>SBI General</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>SBI General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="F276" t="n">
-        <v>2245.46</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B277" t="n">
-        <v>12</v>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>SBI General</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>SBI General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>Motor OD</t>
-        </is>
-      </c>
-      <c r="F277" t="n">
-        <v>1127.64</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B278" t="n">
-        <v>12</v>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>SBI General</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>SBI General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>Motor TP</t>
-        </is>
-      </c>
-      <c r="F278" t="n">
-        <v>1780.94</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B279" t="n">
-        <v>12</v>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>Shriram General</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>Shriram General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
-      <c r="F279" t="n">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B280" t="n">
-        <v>12</v>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>Shriram General</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>Shriram General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="F280" t="n">
-        <v>1964.46</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B281" t="n">
-        <v>12</v>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>Shriram General</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>Shriram General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>Motor OD</t>
-        </is>
-      </c>
-      <c r="F281" t="n">
-        <v>1526.5</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B282" t="n">
-        <v>12</v>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>Shriram General</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>Shriram General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>Motor TP</t>
-        </is>
-      </c>
-      <c r="F282" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B283" t="n">
-        <v>12</v>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>Tata-AIG</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
-      <c r="F283" t="n">
-        <v>514.98</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B284" t="n">
-        <v>12</v>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>Tata-AIG</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="F284" t="n">
-        <v>5435.46</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B285" t="n">
-        <v>12</v>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>Tata-AIG</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>Motor OD</t>
-        </is>
-      </c>
-      <c r="F285" t="n">
-        <v>2980.04</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B286" t="n">
-        <v>12</v>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>Tata-AIG</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>Motor TP</t>
-        </is>
-      </c>
-      <c r="F286" t="n">
-        <v>2117.26</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B287" t="n">
-        <v>12</v>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>New India</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>The New India Assurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
-      <c r="F287" t="n">
-        <v>698.1799999999999</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B288" t="n">
-        <v>12</v>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>New India</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>The New India Assurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="F288" t="n">
-        <v>6959.37</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B289" t="n">
-        <v>12</v>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>New India</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>The New India Assurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>Motor OD</t>
-        </is>
-      </c>
-      <c r="F289" t="n">
-        <v>4302.21</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B290" t="n">
-        <v>12</v>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>New India</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>The New India Assurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>Motor TP</t>
-        </is>
-      </c>
-      <c r="F290" t="n">
-        <v>14435.79</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B291" t="n">
-        <v>12</v>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>Oriental</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>The Oriental Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
-      <c r="F291" t="n">
-        <v>346.12</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B292" t="n">
-        <v>12</v>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>Oriental</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>The Oriental Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="F292" t="n">
-        <v>2960.39</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B293" t="n">
-        <v>12</v>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>Oriental</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>The Oriental Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>Motor OD</t>
-        </is>
-      </c>
-      <c r="F293" t="n">
-        <v>2065.32</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B294" t="n">
-        <v>12</v>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>Oriental</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>The Oriental Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>Motor TP</t>
-        </is>
-      </c>
-      <c r="F294" t="n">
-        <v>6168.85</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B295" t="n">
-        <v>12</v>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>United India</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>United India Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
-      <c r="F295" t="n">
-        <v>273.28</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B296" t="n">
-        <v>12</v>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>United India</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>United India Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="F296" t="n">
-        <v>4964.53</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B297" t="n">
-        <v>12</v>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>United India</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>United India Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>Motor OD</t>
-        </is>
-      </c>
-      <c r="F297" t="n">
-        <v>3489.29</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B298" t="n">
-        <v>12</v>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>United India</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>United India Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>Motor TP</t>
-        </is>
-      </c>
-      <c r="F298" t="n">
-        <v>5311.99</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B299" t="n">
-        <v>12</v>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>Universal Sompo</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>Universal Sompo General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
-      <c r="F299" t="n">
-        <v>43.06</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B300" t="n">
-        <v>12</v>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>Universal Sompo</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>Universal Sompo General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="F300" t="n">
-        <v>1641.14</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B301" t="n">
-        <v>12</v>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>Universal Sompo</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>Universal Sompo General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>Motor OD</t>
-        </is>
-      </c>
-      <c r="F301" t="n">
-        <v>928.3099999999999</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B302" t="n">
-        <v>12</v>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>Universal Sompo</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>Universal Sompo General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>Motor TP</t>
-        </is>
-      </c>
-      <c r="F302" t="n">
-        <v>374.36</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B303" t="n">
-        <v>12</v>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>Niva Bupa</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Niva bupa health insurance company limited</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
-      <c r="F303" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B304" t="n">
-        <v>12</v>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>Niva Bupa</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Niva bupa health insurance company limited</t>
-        </is>
-      </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="F304" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B305" t="n">
-        <v>12</v>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>Niva Bupa</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Niva bupa health insurance company limited</t>
-        </is>
-      </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>Motor OD</t>
-        </is>
-      </c>
-      <c r="F305" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B306" t="n">
-        <v>12</v>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>Niva Bupa</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Niva bupa health insurance company limited</t>
-        </is>
-      </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>Motor TP</t>
-        </is>
-      </c>
-      <c r="F306" t="n">
-        <v>3785.6</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B307" t="n">
-        <v>12</v>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>Aditya Birla</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>Aditya Birla Health Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
-      <c r="F307" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B308" t="n">
-        <v>12</v>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>Aditya Birla</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>Aditya Birla Health Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="F308" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B309" t="n">
-        <v>12</v>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>Aditya Birla</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>Aditya Birla Health Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>Motor OD</t>
-        </is>
-      </c>
-      <c r="F309" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B310" t="n">
-        <v>12</v>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>Aditya Birla</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>Aditya Birla Health Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>Motor TP</t>
-        </is>
-      </c>
-      <c r="F310" t="n">
-        <v>2255.11</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B311" t="n">
-        <v>12</v>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>Care Insurance</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>Care Health Insurance Ltd</t>
-        </is>
-      </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
-      <c r="F311" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B312" t="n">
-        <v>12</v>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>Care Insurance</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>Care Health Insurance Ltd</t>
-        </is>
-      </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="F312" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B313" t="n">
-        <v>12</v>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>Care Insurance</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>Care Health Insurance Ltd</t>
-        </is>
-      </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>Motor OD</t>
-        </is>
-      </c>
-      <c r="F313" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B314" t="n">
-        <v>12</v>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>Care Insurance</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>Care Health Insurance Ltd</t>
-        </is>
-      </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>Motor TP</t>
-        </is>
-      </c>
-      <c r="F314" t="n">
-        <v>4663.98</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B315" t="n">
-        <v>12</v>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>ManipalCigna</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>ManipalCigna Health Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
-      <c r="F315" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B316" t="n">
-        <v>12</v>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>ManipalCigna</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>ManipalCigna Health Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="F316" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B317" t="n">
-        <v>12</v>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>ManipalCigna</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>ManipalCigna Health Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>Motor OD</t>
-        </is>
-      </c>
-      <c r="F317" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B318" t="n">
-        <v>12</v>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>ManipalCigna</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>ManipalCigna Health Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>Motor TP</t>
-        </is>
-      </c>
-      <c r="F318" t="n">
-        <v>1117.05</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B319" t="n">
-        <v>12</v>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>Star Health</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>Star Health &amp; Allied Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
-      <c r="F319" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B320" t="n">
-        <v>12</v>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>Star Health</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>Star Health &amp; Allied Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="F320" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B321" t="n">
-        <v>12</v>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>Star Health</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>Star Health &amp; Allied Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>Motor OD</t>
-        </is>
-      </c>
-      <c r="F321" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B322" t="n">
-        <v>12</v>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>Star Health</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>Star Health &amp; Allied Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>Motor TP</t>
-        </is>
-      </c>
-      <c r="F322" t="n">
-        <v>10142.29</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B323" t="n">
-        <v>12</v>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>AIC</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>Agriculture Insurance Co Of India Ltd</t>
-        </is>
-      </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
-      <c r="F323" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B324" t="n">
-        <v>12</v>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>AIC</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>Agriculture Insurance Co Of India Ltd</t>
-        </is>
-      </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="F324" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B325" t="n">
-        <v>12</v>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>AIC</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>Agriculture Insurance Co Of India Ltd</t>
-        </is>
-      </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>Motor OD</t>
-        </is>
-      </c>
-      <c r="F325" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B326" t="n">
-        <v>12</v>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>AIC</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>Agriculture Insurance Co Of India Ltd</t>
-        </is>
-      </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>Motor TP</t>
-        </is>
-      </c>
-      <c r="F326" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B327" t="n">
-        <v>12</v>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>ECGC Ltd</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>ECGC Ltd</t>
-        </is>
-      </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
-      <c r="F327" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B328" t="n">
-        <v>12</v>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>ECGC Ltd</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>ECGC Ltd</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
-      <c r="F328" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B329" t="n">
-        <v>12</v>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>ECGC Ltd</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>ECGC Ltd</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
-        <is>
-          <t>Motor OD</t>
-        </is>
-      </c>
-      <c r="F329" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B330" t="n">
-        <v>12</v>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>ECGC Ltd</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>ECGC Ltd</t>
-        </is>
-      </c>
-      <c r="E330" t="inlineStr">
-        <is>
-          <t>Motor TP</t>
-        </is>
-      </c>
-      <c r="F330" t="n">
         <v>0</v>
       </c>
     </row>
